--- a/Docs/Command map.xlsx
+++ b/Docs/Command map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Repositories\Prive\GamemakerMultiplayer\GamemakerMultiplayerServer\GamemakerMultiplayerServer\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EF6072-224A-4FE9-86F4-6AEB49705122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2AA149-66FE-4EB7-B283-DDE3CED7E1B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C552817C-4C83-48CE-87C6-E0123398ECDD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Disconnect</t>
   </si>
@@ -69,10 +69,28 @@
     <t>Properties</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>X, Y, Z, Direction</t>
+    <t>X, Y, Z</t>
+  </si>
+  <si>
+    <t>SPDA</t>
+  </si>
+  <si>
+    <t>SPPO</t>
+  </si>
+  <si>
+    <t>PING</t>
+  </si>
+  <si>
+    <t>Pong's the client.</t>
+  </si>
+  <si>
+    <t>Name, Color, Team</t>
+  </si>
+  <si>
+    <t>Moves the player to a new position</t>
+  </si>
+  <si>
+    <t>Sets the player's properties</t>
   </si>
 </sst>
 </file>
@@ -469,7 +487,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,8 +495,8 @@
     <col min="1" max="1" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -516,38 +534,50 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Command map.xlsx
+++ b/Docs/Command map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Repositories\Prive\GamemakerMultiplayer\GamemakerMultiplayerServer\GamemakerMultiplayerServer\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2AA149-66FE-4EB7-B283-DDE3CED7E1B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB9034D-3276-4742-B4BC-E2CAF1DC78FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C552817C-4C83-48CE-87C6-E0123398ECDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C552817C-4C83-48CE-87C6-E0123398ECDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Command map" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Disconnect</t>
   </si>
@@ -57,9 +57,6 @@
     <t>SetPlayerPosition</t>
   </si>
   <si>
-    <t>Associated method</t>
-  </si>
-  <si>
     <t>DisconnectPlayer</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Properties</t>
   </si>
   <si>
-    <t>X, Y, Z</t>
-  </si>
-  <si>
     <t>SPDA</t>
   </si>
   <si>
@@ -84,20 +78,47 @@
     <t>Pong's the client.</t>
   </si>
   <si>
-    <t>Name, Color, Team</t>
-  </si>
-  <si>
     <t>Moves the player to a new position</t>
   </si>
   <si>
     <t>Sets the player's properties</t>
+  </si>
+  <si>
+    <t>CHAT</t>
+  </si>
+  <si>
+    <t>Accepted directions</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>ID, Name, Color, Team</t>
+  </si>
+  <si>
+    <t>ID, X, Y, Z</t>
+  </si>
+  <si>
+    <t>ID, Message</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Server methods</t>
+  </si>
+  <si>
+    <t>Client methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SetPlayerData, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +129,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,25 +178,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -484,99 +521,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8146AE0F-F6E8-4843-BFBE-66904217829A}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
+      <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9" t="s">
+    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
